--- a/biology/Botanique/Panneau_de_particules/Panneau_de_particules.xlsx
+++ b/biology/Botanique/Panneau_de_particules/Panneau_de_particules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un panneau de particules, appelé aussi aggloméré, est un matériau en plaque fabriqué sous pression et chaleur à partir de particules de bois avec addition d'un liant[1],[2]. Il fait partie des panneaux modernes à base de bois.
-L'épaisseur d'un panneau de particules de bois varie entre 3 et 50 mm[3]. Des épaisseurs supérieures allant jusqu'à 70 mm sont généralement réservées à la réalisation de cloisons.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un panneau de particules, appelé aussi aggloméré, est un matériau en plaque fabriqué sous pression et chaleur à partir de particules de bois avec addition d'un liant,. Il fait partie des panneaux modernes à base de bois.
+L'épaisseur d'un panneau de particules de bois varie entre 3 et 50 mm. Des épaisseurs supérieures allant jusqu'à 70 mm sont généralement réservées à la réalisation de cloisons.
 Ce type de panneau est composé de morceaux de bois plus gros que ceux des panneaux de fibres à densité moyenne et des panneaux de fibres à haute densité. Ce n'est pas la seule différence : les panneaux de particules sont réalisés à base de copeaux coupés-broyés alors que les panneaux de fibres, comme son nom l'indique, sont confectionnés avec du bois défibré, sans liant pour tous sauf pour les panneaux de fibres à densité moyenne (MDF).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon leur structures, les panneaux de particules de bois peuvent être[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon leur structures, les panneaux de particules de bois peuvent être :
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les particules de bois sont à base de copeaux, sciures, farine de bois et déchets de scierie.
-Les panneaux de particules de bois sont fabriqués selon un procédé appelé sec ou à sec[7]. Lors de ce procédé, un liant est utilisé. Ce liant peut être :
+Les panneaux de particules de bois sont fabriqués selon un procédé appelé sec ou à sec. Lors de ce procédé, un liant est utilisé. Ce liant peut être :
 organique (majorité des cas) : résine comme les phénols-formaldéhydes et urées-formaldéhydes et d'isocyanate (majoritairement utilisé de nos jours pour les panneaux dits d'intérieur). Les phénols-formaldéhydes sont utilisés pour les panneaux destinés à un milieu humide, dalles de toiture, bardage etc. Ce liant permet d'obtenir un collage dit non réversible, c'est-à-dire que le liant ne revient pas à son état pâteux au contact de l'eau ou d'une forte humidité.
 inorganique (plus rarement) : ciment (panneau de particules liées au ciment), magnésie.
 Ce procédé suit les étapes suivantes : broyage des morceaux de bois pour former des particules, séchage des particules, triage des particules, encollage des particules, conformation du mat, pressage, cuisson, stabilisation et enfin mise à dimension.
@@ -579,7 +595,9 @@
           <t>Impact sanitaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les panneaux à base de liants organiques contiennent généralement et émettent du formaldéhyde, molécules contributrices aux risques de leucémie et cancers. Il peut s'agir d'un des principaux polluants intérieurs.
 Depuis les années 80, l'usage généralisé de liant isocyanate a permis de supprimer ce problème de « polluant intérieur ».
@@ -612,7 +630,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les panneaux de particules de bois sont bon marché et faciles à utiliser. Il faut cependant prendre des précautions pour l'usinage (fraisage, ...) car la colle contenue dans le panneau contribue à une surchauffe de l'outil et conduit à une détérioration très rapide de celui-ci. Des outils diamantés sont recommandés dans ce cas.  
 </t>
@@ -643,7 +663,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les panneaux de particules de bois sont utilisés en :
 construction : dalles de planchers, paroi, gros œuvre sur toiture ;
